--- a/Necklace/BOM.xlsx
+++ b/Necklace/BOM.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21929"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22026"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\test\Desktop\Necklace\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\test\Desktop\PCB_Projects\Necklace\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{81212CC7-B62E-46B2-87A9-49D6664B88A5}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{49BDC76F-486B-46D7-80F3-EC4003795D24}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="3045" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="24">
   <si>
     <t>Link:</t>
   </si>
@@ -60,9 +60,6 @@
     <t>https://www.digikey.com/product-detail/en/panasonic-bsg/CR-1025-BN/P031-ND/269738</t>
   </si>
   <si>
-    <t>https://www.digikey.com/product-detail/en/toshiba-semiconductor-and-storage/TCS40DPRLF/TCS40DPRLFCT-ND/5012766</t>
-  </si>
-  <si>
     <t>LED</t>
   </si>
   <si>
@@ -91,6 +88,15 @@
   </si>
   <si>
     <t>https://www.digikey.com/products/en?keywords=BHX1-1025-PC</t>
+  </si>
+  <si>
+    <t>https://www.digikey.com/product-detail/en/texas-instruments/DRV5023BIQDBZR/296-38453-1-ND/5022218</t>
+  </si>
+  <si>
+    <t>https://www.alibaba.com/product-detail/MAGNETIC-SWITCH-UNIPOLAR-SOT23-3-DRV5023BIQDBZR_62274180533.html?spm=a2700.7724838.2017115.52.3a0c7d1e5jlvbr</t>
+  </si>
+  <si>
+    <t>Resistor 24k</t>
   </si>
 </sst>
 </file>
@@ -431,10 +437,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G7"/>
+  <dimension ref="A1:G8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E14" sqref="E14"/>
+      <selection activeCell="G4" sqref="G4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -464,7 +470,7 @@
         <v>2</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G1" s="1" t="s">
         <v>9</v>
@@ -489,13 +495,19 @@
         <v>7</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>11</v>
+        <v>21</v>
       </c>
       <c r="C3">
-        <v>0.4</v>
+        <v>1.08</v>
       </c>
       <c r="D3">
         <v>1</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="G3">
+        <v>0.26</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
@@ -512,7 +524,7 @@
         <v>1</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G4">
         <v>3.4000000000000002E-2</v>
@@ -520,10 +532,10 @@
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
+        <v>11</v>
+      </c>
+      <c r="B5" s="2" t="s">
         <v>12</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>13</v>
       </c>
       <c r="C5">
         <v>0.28000000000000003</v>
@@ -534,10 +546,10 @@
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C6">
         <v>0.71</v>
@@ -546,38 +558,44 @@
         <v>1</v>
       </c>
       <c r="F6" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="G6" s="3" t="s">
         <v>17</v>
-      </c>
-      <c r="G6" s="3" t="s">
-        <v>18</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
+        <v>18</v>
+      </c>
+      <c r="B7" s="2" t="s">
         <v>19</v>
-      </c>
-      <c r="B7" s="2" t="s">
-        <v>20</v>
       </c>
       <c r="C7">
         <v>0.1</v>
       </c>
       <c r="D7">
         <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>23</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="B2" r:id="rId1" xr:uid="{3CAB928B-D87B-4B69-B2A3-BA6CADC8E65D}"/>
     <hyperlink ref="B4" r:id="rId2" xr:uid="{FE911BB7-39EB-41A3-811D-F8BCDE3749D1}"/>
-    <hyperlink ref="B3" r:id="rId3" xr:uid="{8CE3F742-7F08-4D61-87DC-F3A4A5546338}"/>
-    <hyperlink ref="B5" r:id="rId4" xr:uid="{510E6931-B5EB-4D2A-A550-75936E4523D2}"/>
-    <hyperlink ref="F4" r:id="rId5" xr:uid="{8F5F67E0-FD18-43FC-9CD6-055769EB175C}"/>
-    <hyperlink ref="F6" r:id="rId6" xr:uid="{1D983EF2-32A4-4DD5-9E39-0DBE29D9B0D0}"/>
-    <hyperlink ref="B7" r:id="rId7" xr:uid="{EEE1A620-AD25-464B-885D-BE9E189F4BFE}"/>
-    <hyperlink ref="B6" r:id="rId8" xr:uid="{4DD6EB94-0C45-4786-A80E-976629C1F3B0}"/>
+    <hyperlink ref="B5" r:id="rId3" xr:uid="{510E6931-B5EB-4D2A-A550-75936E4523D2}"/>
+    <hyperlink ref="F4" r:id="rId4" xr:uid="{8F5F67E0-FD18-43FC-9CD6-055769EB175C}"/>
+    <hyperlink ref="F6" r:id="rId5" xr:uid="{1D983EF2-32A4-4DD5-9E39-0DBE29D9B0D0}"/>
+    <hyperlink ref="B7" r:id="rId6" xr:uid="{EEE1A620-AD25-464B-885D-BE9E189F4BFE}"/>
+    <hyperlink ref="B6" r:id="rId7" xr:uid="{4DD6EB94-0C45-4786-A80E-976629C1F3B0}"/>
+    <hyperlink ref="F3" r:id="rId8" xr:uid="{6B135C5B-AEBF-4480-8298-51E79E2DDC6E}"/>
+    <hyperlink ref="B3" r:id="rId9" xr:uid="{7DDC5ECA-8508-436D-B79C-7762C88BBC1E}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId9"/>
+  <pageSetup orientation="portrait" r:id="rId10"/>
 </worksheet>
 </file>